--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>WBS Categories</t>
   </si>
@@ -35,24 +35,6 @@
     <t>1.Initiating</t>
   </si>
   <si>
-    <t xml:space="preserve">   2.2 Combination of design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2.3.Design Evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   2.1. Wireframe the UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3.1. Developing the application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3.2.PWA implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   3.3.Mobile execution</t>
-  </si>
-  <si>
     <t>Total time per week(hrs)</t>
   </si>
   <si>
@@ -62,18 +44,9 @@
     <t>Cost per week($)</t>
   </si>
   <si>
-    <t xml:space="preserve">   2.4.Claiming and Finalizing contract </t>
-  </si>
-  <si>
     <t xml:space="preserve">                                           -</t>
   </si>
   <si>
-    <t>5.Closing</t>
-  </si>
-  <si>
-    <t>4.Monitoring and Controlling</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total </t>
   </si>
   <si>
@@ -101,9 +74,6 @@
     <t>Team Lead</t>
   </si>
   <si>
-    <t>Full stack Developer</t>
-  </si>
-  <si>
     <t>2.Planning</t>
   </si>
   <si>
@@ -117,6 +87,45 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.1. Wireframe the UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.2 Combination of design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.3.Design Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.4.Claiming and Finalizing contract </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1. Developing the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.2.PWA implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.3.Mobile execution</t>
+  </si>
+  <si>
+    <t>5. Testing</t>
+  </si>
+  <si>
+    <t>6.Monitoring and Controlling</t>
+  </si>
+  <si>
+    <t>7.Closing</t>
+  </si>
+  <si>
+    <t>Backend Developer</t>
+  </si>
+  <si>
+    <t>Frontend Developer</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
   </si>
 </sst>
 </file>
@@ -508,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +536,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -547,16 +556,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -564,276 +573,285 @@
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="C7" s="2">
         <v>14</v>
       </c>
       <c r="D7" s="3">
-        <v>5320</v>
+        <v>6034</v>
       </c>
       <c r="E7" s="3">
-        <v>63840</v>
+        <v>72408</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B8" s="3">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C8" s="2">
         <v>19</v>
       </c>
       <c r="D8" s="3">
-        <v>7980</v>
+        <v>8189</v>
       </c>
       <c r="E8" s="3">
-        <v>95760</v>
+        <v>98268</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="C9" s="2">
         <v>21.5</v>
       </c>
       <c r="D9" s="3">
-        <v>9675</v>
+        <v>9266.5</v>
       </c>
       <c r="E9" s="3">
-        <v>116100</v>
+        <v>111204</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>2.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="C14" s="2">
         <v>23</v>
       </c>
       <c r="D14" s="3">
-        <v>11040</v>
+        <v>9913</v>
       </c>
       <c r="E14" s="3">
-        <v>132480</v>
+        <v>118956</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B18" s="3">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="C18" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3">
-        <v>5180</v>
+        <v>3879</v>
       </c>
       <c r="E18" s="3">
-        <v>62160</v>
+        <v>46548</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="3">
+        <v>431</v>
+      </c>
+      <c r="C19" s="2">
         <v>14</v>
       </c>
-      <c r="B19" s="3">
-        <v>395</v>
-      </c>
-      <c r="C19" s="2">
-        <v>12</v>
-      </c>
       <c r="D19" s="3">
-        <v>4740</v>
+        <v>6034</v>
       </c>
       <c r="E19" s="3">
-        <v>56880</v>
+        <v>72408</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <v>431</v>
+      </c>
+      <c r="C20" s="2">
+        <v>12</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5172</v>
+      </c>
       <c r="E20" s="3">
-        <v>527220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="3">
-        <v>80</v>
+        <v>62064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3">
+        <v>581856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D24" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3">
         <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="3">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" s="7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D27" s="3">
         <v>68</v>
@@ -841,9 +859,17 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3">
         <v>68</v>
       </c>
     </row>

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +529,7 @@
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
@@ -576,13 +576,15 @@
         <v>431</v>
       </c>
       <c r="C7" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="3">
-        <v>6034</v>
+        <f>B7*C7</f>
+        <v>4310</v>
       </c>
       <c r="E7" s="3">
-        <v>72408</v>
+        <f>D7*12</f>
+        <v>51720</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -593,13 +595,15 @@
         <v>431</v>
       </c>
       <c r="C8" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>8189</v>
+        <f t="shared" ref="D8:D9" si="0">B8*C8</f>
+        <v>3879</v>
       </c>
       <c r="E8" s="3">
-        <v>98268</v>
+        <f t="shared" ref="E8:E9" si="1">D8*12</f>
+        <v>46548</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,13 +614,15 @@
         <v>431</v>
       </c>
       <c r="C9" s="2">
-        <v>21.5</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3">
-        <v>9266.5</v>
+        <f t="shared" si="0"/>
+        <v>5172</v>
       </c>
       <c r="E9" s="3">
-        <v>111204</v>
+        <f t="shared" si="1"/>
+        <v>62064</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -627,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>6</v>
@@ -644,7 +650,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>6</v>
@@ -661,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
@@ -678,7 +684,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>20</v>
@@ -695,13 +701,15 @@
         <v>431</v>
       </c>
       <c r="C14" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>9913</v>
+        <f>B14*C14</f>
+        <v>4741</v>
       </c>
       <c r="E14" s="3">
-        <v>118956</v>
+        <f>D14*12</f>
+        <v>56892</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
@@ -729,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
@@ -746,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -766,9 +774,11 @@
         <v>9</v>
       </c>
       <c r="D18" s="3">
+        <f>B18*C18</f>
         <v>3879</v>
       </c>
       <c r="E18" s="3">
+        <f t="shared" ref="E15:E21" si="2">D18*12</f>
         <v>46548</v>
       </c>
     </row>
@@ -780,13 +790,15 @@
         <v>431</v>
       </c>
       <c r="C19" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3">
-        <v>6034</v>
+        <f t="shared" ref="D19:D20" si="3">B19*C19</f>
+        <v>4310</v>
       </c>
       <c r="E19" s="3">
-        <v>72408</v>
+        <f t="shared" si="2"/>
+        <v>51720</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -797,13 +809,15 @@
         <v>431</v>
       </c>
       <c r="C20" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3">
-        <v>5172</v>
+        <f t="shared" si="3"/>
+        <v>3879</v>
       </c>
       <c r="E20" s="3">
-        <v>62064</v>
+        <f t="shared" si="2"/>
+        <v>46548</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,7 +828,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3">
-        <v>581856</v>
+        <f>SUM(E7:E20)</f>
+        <v>362040</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">

--- a/CostEstimate.xlsx
+++ b/CostEstimate.xlsx
@@ -125,7 +125,7 @@
     <t>Frontend Developer</t>
   </si>
   <si>
-    <t>Quality Assurance</t>
+    <t>Quality Assurance Analyst</t>
   </si>
 </sst>
 </file>
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
         <v>3879</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" ref="E15:E21" si="2">D18*12</f>
+        <f t="shared" ref="E18:E20" si="2">D18*12</f>
         <v>46548</v>
       </c>
     </row>
